--- a/training/java/core/training_java/src/training_java/CaseStudy2/Variant_Output.xlsx
+++ b/training/java/core/training_java/src/training_java/CaseStudy2/Variant_Output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="178">
   <si>
     <t>Remark</t>
   </si>
@@ -464,91 +464,91 @@
     <t>Date 2</t>
   </si>
   <si>
-    <t>Date 3</t>
-  </si>
-  <si>
-    <t>2025-04-01</t>
-  </si>
-  <si>
-    <t>2025-04-02</t>
-  </si>
-  <si>
-    <t>2025-04-03</t>
+    <t>2025-03-15</t>
+  </si>
+  <si>
+    <t>2025-03-20</t>
+  </si>
+  <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
+    <t>2025-03-19</t>
   </si>
   <si>
     <t>EMP0008</t>
   </si>
   <si>
-    <t>2025-03-15</t>
-  </si>
-  <si>
-    <t>2025-03-16</t>
+    <t>2025-03-09</t>
   </si>
   <si>
     <t>2025-03-17</t>
   </si>
   <si>
+    <t>EMP0010</t>
+  </si>
+  <si>
+    <t>2025-03-11</t>
+  </si>
+  <si>
+    <t>2025-03-21</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>2025-03-18</t>
+  </si>
+  <si>
+    <t>2025-03-29</t>
+  </si>
+  <si>
     <t>2025-03-24</t>
   </si>
   <si>
+    <t>2025-03-14</t>
+  </si>
+  <si>
     <t>2025-03-25</t>
   </si>
   <si>
-    <t>2025-03-26</t>
-  </si>
-  <si>
-    <t>2025-04-06</t>
-  </si>
-  <si>
-    <t>2025-04-07</t>
-  </si>
-  <si>
-    <t>2025-04-08</t>
-  </si>
-  <si>
-    <t>2025-05-17</t>
-  </si>
-  <si>
-    <t>2025-05-18</t>
-  </si>
-  <si>
-    <t>2025-05-19</t>
-  </si>
-  <si>
-    <t>2025-04-09</t>
+    <t>EMP0011</t>
+  </si>
+  <si>
+    <t>2025-03-23</t>
+  </si>
+  <si>
+    <t>EMP0003</t>
+  </si>
+  <si>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>2025-03-22</t>
+  </si>
+  <si>
+    <t>2025-03-12</t>
   </si>
   <si>
     <t>2025-04-10</t>
   </si>
   <si>
+    <t>2025-04-16</t>
+  </si>
+  <si>
     <t>EMP0013</t>
   </si>
   <si>
-    <t>2025-04-11</t>
-  </si>
-  <si>
-    <t>2025-04-12</t>
-  </si>
-  <si>
-    <t>2025-04-13</t>
-  </si>
-  <si>
-    <t>2025-04-14</t>
-  </si>
-  <si>
-    <t>2025-04-15</t>
-  </si>
-  <si>
     <t>EMP0015</t>
   </si>
   <si>
-    <t>2025-05-05</t>
-  </si>
-  <si>
-    <t>2025-05-06</t>
-  </si>
-  <si>
-    <t>2025-05-07</t>
+    <t>EMP0007</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>EMP0018</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1159,7 @@
         <v>58</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>10.520000000000001</v>
+        <v>10.519999999999998</v>
       </c>
     </row>
     <row r="43">
@@ -1313,7 +1313,7 @@
         <v>61</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>7.22</v>
+        <v>7.2200000000000015</v>
       </c>
     </row>
     <row r="57">
@@ -2138,7 +2138,7 @@
         <v>81</v>
       </c>
       <c r="C131" t="n" s="0">
-        <v>7.8999999999999995</v>
+        <v>7.900000000000001</v>
       </c>
     </row>
     <row r="132">
@@ -2732,7 +2732,7 @@
         <v>105</v>
       </c>
       <c r="C185" t="n" s="0">
-        <v>4.039999999999999</v>
+        <v>4.040000000000001</v>
       </c>
     </row>
     <row r="186">
@@ -3326,7 +3326,7 @@
         <v>116</v>
       </c>
       <c r="C239" t="n" s="0">
-        <v>7.739999999999999</v>
+        <v>7.740000000000001</v>
       </c>
     </row>
     <row r="240">
@@ -4566,7 +4566,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4582,41 +4582,32 @@
       <c r="C1" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="D1" t="s" s="0">
-        <v>149</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
         <v>128</v>
       </c>
       <c r="B2" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>150</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>151</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>152</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>151</v>
-      </c>
-      <c r="D3" t="s" s="0">
         <v>152</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>154</v>
@@ -4624,120 +4615,236 @@
       <c r="C4" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="D4" t="s" s="0">
-        <v>156</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>158</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>161</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>164</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>166</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>169</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>172</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>176</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="B21" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="C23" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="C12" t="s" s="0">
-        <v>161</v>
-      </c>
-      <c r="D12" t="s" s="0">
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="C24" t="s" s="0">
         <v>162</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
